--- a/medicine/Psychotrope/Scheurebe/Scheurebe.xlsx
+++ b/medicine/Psychotrope/Scheurebe/Scheurebe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Scheurebe est un type de cépage blanc. Comme le Kerner, il compte parmi les développements de nouveaux cépages modernes allemands et fait partie des plus réussis.
-Créé et élevé en 1916 par Georg Scheu, ce cépage prendra plus tard le nom de son créateur. C’est un croisement des cépages riesling × cépage sauvage[1],[2]. C'est seulement à maturité complète qu'il est possible de produire un vin de qualité aux arômes subtils et racés, comme le cassis et le pamplemousse. Les vins du cépage Scheurebe sont souvent destinés à accompagner les desserts.
+Créé et élevé en 1916 par Georg Scheu, ce cépage prendra plus tard le nom de son créateur. C’est un croisement des cépages riesling × cépage sauvage,. C'est seulement à maturité complète qu'il est possible de produire un vin de qualité aux arômes subtils et racés, comme le cassis et le pamplemousse. Les vins du cépage Scheurebe sont souvent destinés à accompagner les desserts.
 Georg Scheu est parvenu à croiser deux cépages pour obtenir une nouveauté aux qualités œnologiques intéressantes, baptisée « Sämling 88 ». À la fin de la Seconde Guerre mondiale, cette dernière recevra officiellement le patronyme de « Scheurebe ».
 Aujourd'hui, l’Institut viticole de Alzey, situé dans le Land de Rhénanie-Palatinat, est inscrit comme éleveur de maintien pour le cépage Scheurebe.
-La diffusion du Scheurebe en Allemagne s’est heurtée à celle d’autres variétés comme le Müller-Thurgau ou le Kerner ; elle s’est stabilisée depuis quelques décennies, pour couvrir en 2019[3] environ 1 412 hectares. La traversée de l’Atlantique n'a pas fait peur au Scheurebe : on le cultive en Californie et au Canada. Il a aussi été introduit en Suisse grâce à quelques vignerons genevois entreprenants, mais y reste cependant une rareté. En Autriche, il est toujours cultivé sous le nom « Sämling 88 ».
+La diffusion du Scheurebe en Allemagne s’est heurtée à celle d’autres variétés comme le Müller-Thurgau ou le Kerner ; elle s’est stabilisée depuis quelques décennies, pour couvrir en 2019 environ 1 412 hectares. La traversée de l’Atlantique n'a pas fait peur au Scheurebe : on le cultive en Californie et au Canada. Il a aussi été introduit en Suisse grâce à quelques vignerons genevois entreprenants, mais y reste cependant une rareté. En Autriche, il est toujours cultivé sous le nom « Sämling 88 ».
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonyme : Sämling 88
 Précocité : moyenne à tardive
